--- a/frontend_react/public/JUNIOR FROND-END DEVELOPER (React).xlsx
+++ b/frontend_react/public/JUNIOR FROND-END DEVELOPER (React).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemel\WebstormProjects\PortfolioWebsite\frontend_react\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694AE368-2976-413B-93C4-E7128EA74FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA10463E-3893-48E6-B273-6130A8407BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="3975" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="630" windowWidth="28800" windowHeight="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,33 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">	- Bootstrap, Materialize, Tailwind </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> React</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,  Redux, ReactNative(основы)</t>
-    </r>
   </si>
   <si>
     <t>- Dgraph, GraphQl, Apollo, Socket.io</t>
@@ -138,9 +111,6 @@
     <t>НАВЫКИ</t>
   </si>
   <si>
-    <t>+38 093 98 24 980</t>
-  </si>
-  <si>
     <t>• Харьковский Институт ВВС, летчик-инженер, бакалавр 1996-2000г.</t>
   </si>
   <si>
@@ -233,6 +203,36 @@
   </si>
   <si>
     <t>https://github.com/nikolaefpost/JS/tree/master/ExamJS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> React</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Next ,  Redux, ReactNative(основы)</t>
+    </r>
+  </si>
+  <si>
+    <t>+38 093 656 27 80</t>
   </si>
 </sst>
 </file>
@@ -732,6 +732,267 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -770,267 +1031,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1570,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:I23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,108 +1588,108 @@
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="79" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="85" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="81" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="82" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="92" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="83" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -1703,459 +1703,459 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="100"/>
+      <c r="A11" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111" t="s">
+      <c r="A12" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="51"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="51"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="63" t="s">
+      <c r="A20" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="62"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="64" t="s">
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="50" t="s">
-        <v>11</v>
-      </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="51"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="51"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="50" t="s">
-        <v>12</v>
+      <c r="A26" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="59" t="s">
+        <v>11</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="51"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="51"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="50" t="s">
-        <v>13</v>
+      <c r="A28" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="59" t="s">
+        <v>12</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="51"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="40"/>
+      <c r="A29" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="51"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="50" t="s">
-        <v>14</v>
+      <c r="A30" s="58"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="59" t="s">
+        <v>13</v>
       </c>
       <c r="H30" s="11"/>
-      <c r="I30" s="51"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
+      <c r="A31" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="61"/>
+      <c r="I32" s="95"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
+      <c r="A33" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="97"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="62"/>
+      <c r="A34" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="62"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="62"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="62"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="62"/>
+      <c r="A38" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
+      <c r="A39" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="87"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="28" t="s">
+      <c r="A40" s="86"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="56"/>
+      <c r="I40" s="57"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="57"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
+      <c r="A42" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="57"/>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="56"/>
+      <c r="I43" s="57"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="30"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="57"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
+      <c r="A45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="57"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
@@ -2171,6 +2171,34 @@
     <row r="47" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G43:I45"/>
+    <mergeCell ref="G40:I42"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A42:F44"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="G28:I29"/>
+    <mergeCell ref="G30:I31"/>
+    <mergeCell ref="G32:I33"/>
+    <mergeCell ref="G34:I38"/>
+    <mergeCell ref="G26:I27"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="G24:I25"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A22:F23"/>
+    <mergeCell ref="A24:F25"/>
     <mergeCell ref="G14:I15"/>
     <mergeCell ref="A2:B9"/>
     <mergeCell ref="C2:F3"/>
@@ -2187,34 +2215,6 @@
     <mergeCell ref="A12:F19"/>
     <mergeCell ref="G16:I17"/>
     <mergeCell ref="G18:I19"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="G24:I25"/>
-    <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A22:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="G43:I45"/>
-    <mergeCell ref="G40:I42"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A42:F44"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A39:F40"/>
-    <mergeCell ref="G28:I29"/>
-    <mergeCell ref="G30:I31"/>
-    <mergeCell ref="G32:I33"/>
-    <mergeCell ref="G34:I38"/>
-    <mergeCell ref="G26:I27"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6:F7" r:id="rId1" display="https://github.com/nikolaefpost" xr:uid="{F99E1565-C031-456B-A6DE-1EADDC99A248}"/>
